--- a/data/trans_orig/P79$alquiler_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P79$alquiler_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>10867</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4728</v>
+        <v>4882</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21618</v>
+        <v>22324</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01994302738803808</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008675716485426288</v>
+        <v>0.00895871013709911</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03967207429503933</v>
+        <v>0.04096669204413424</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -762,19 +762,19 @@
         <v>3131</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7436</v>
+        <v>7770</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.006523089713824528</v>
+        <v>0.006523089713824527</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00147767688598239</v>
+        <v>0.001470256155891322</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01549439294761273</v>
+        <v>0.01618963024958257</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -783,19 +783,19 @@
         <v>13998</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7241</v>
+        <v>7415</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24463</v>
+        <v>25239</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01365860958399773</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007065704255606104</v>
+        <v>0.007234829322411208</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02386973887001187</v>
+        <v>0.02462740943766411</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5488</v>
+        <v>5701</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002066348808905088</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01007090758964911</v>
+        <v>0.01046136498040285</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>2104</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6221</v>
+        <v>5572</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.00438410393629884</v>
+        <v>0.004384103936298839</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00132551019899906</v>
+        <v>0.001315297792691232</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01296198156715356</v>
+        <v>0.01160959746012859</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -854,19 +854,19 @@
         <v>3230</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8721</v>
+        <v>8134</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003151729526878705</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0007199882470014761</v>
+        <v>0.0007244957811641618</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.008509628416679751</v>
+        <v>0.007936918438517314</v>
       </c>
     </row>
     <row r="6">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4790</v>
+        <v>4741</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002943576898813009</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009979770455066317</v>
+        <v>0.009877709995541125</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4937</v>
+        <v>4358</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001378446571030475</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.004817189241943887</v>
+        <v>0.004252308003626054</v>
       </c>
     </row>
     <row r="8">
@@ -1040,19 +1040,19 @@
         <v>5763</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2289</v>
+        <v>2259</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12447</v>
+        <v>12803</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01057523883975916</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004200877153570607</v>
+        <v>0.004145988103594302</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02284211665192218</v>
+        <v>0.02349559339897179</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -1061,19 +1061,19 @@
         <v>4063</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1527</v>
+        <v>1513</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9568</v>
+        <v>8745</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.008466562923006181</v>
+        <v>0.008466562923006179</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.003182709547492383</v>
+        <v>0.003152462111784578</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01993659217975147</v>
+        <v>0.01822200355660205</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -1082,19 +1082,19 @@
         <v>9826</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4889</v>
+        <v>4903</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17518</v>
+        <v>18000</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.009587767750407017</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004770051642794845</v>
+        <v>0.004784076912266129</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01709334839043417</v>
+        <v>0.01756320385032968</v>
       </c>
     </row>
     <row r="10">
@@ -1111,19 +1111,19 @@
         <v>3037</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8491</v>
+        <v>8570</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005573535491857577</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001360337239562844</v>
+        <v>0.001355347716121128</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01558114565591277</v>
+        <v>0.01572736870270885</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1132,19 +1132,19 @@
         <v>3381</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1350</v>
+        <v>1022</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8297</v>
+        <v>9073</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.007044127619458699</v>
+        <v>0.007044127619458698</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002813152166450599</v>
+        <v>0.002129226884261259</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01728806109980461</v>
+        <v>0.01890410245480949</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1153,19 +1153,19 @@
         <v>6418</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2849</v>
+        <v>2600</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13336</v>
+        <v>11807</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006262198552263308</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002780185748784857</v>
+        <v>0.002536861976011539</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01301237536529215</v>
+        <v>0.01152034323176051</v>
       </c>
     </row>
     <row r="11">
@@ -1182,19 +1182,19 @@
         <v>503918</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>488435</v>
+        <v>488421</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>515275</v>
+        <v>515283</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.92474694865361</v>
+        <v>0.9247469486536098</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8963341582097581</v>
+        <v>0.8963079202333902</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9455881864778863</v>
+        <v>0.9456043748257461</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>632</v>
@@ -1203,19 +1203,19 @@
         <v>447672</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>437274</v>
+        <v>435848</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>456583</v>
+        <v>455932</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9327901110883386</v>
+        <v>0.9327901110883385</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9111243422104305</v>
+        <v>0.9081524250302044</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9513570170911497</v>
+        <v>0.9500008395289335</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1145</v>
@@ -1224,19 +1224,19 @@
         <v>951590</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>932443</v>
+        <v>933141</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>967627</v>
+        <v>966598</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9285134783076725</v>
+        <v>0.9285134783076723</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9098310175324493</v>
+        <v>0.9105122670289291</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9441618891296074</v>
+        <v>0.9431573272670987</v>
       </c>
     </row>
     <row r="12">
@@ -1253,19 +1253,19 @@
         <v>15237</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8636</v>
+        <v>8308</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27834</v>
+        <v>28079</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.027962143628634</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0158479049447491</v>
+        <v>0.01524564292057811</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05107778407153852</v>
+        <v>0.05152910518828908</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1274,19 +1274,19 @@
         <v>6943</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3039</v>
+        <v>3115</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14423</v>
+        <v>14467</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01446661335589378</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006331887674068581</v>
+        <v>0.006490060695043804</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03005307838540497</v>
+        <v>0.03014495306651416</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -1295,19 +1295,19 @@
         <v>22180</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>13508</v>
+        <v>13401</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>35300</v>
+        <v>34473</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.02164232659372036</v>
+        <v>0.02164232659372035</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01318018729449556</v>
+        <v>0.01307556682754297</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03444382567061711</v>
+        <v>0.03363723311142095</v>
       </c>
     </row>
     <row r="13">
@@ -1324,19 +1324,19 @@
         <v>16201</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9475</v>
+        <v>9480</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24129</v>
+        <v>25280</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02973087656740595</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01738685282241532</v>
+        <v>0.0173971348834533</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04428002420205888</v>
+        <v>0.04639235766737689</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -1345,19 +1345,19 @@
         <v>18273</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11950</v>
+        <v>12081</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26835</v>
+        <v>26854</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03807440552187309</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02490040815265173</v>
+        <v>0.02517226762966921</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05591374861441406</v>
+        <v>0.05595363753432103</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -1366,19 +1366,19 @@
         <v>34474</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24140</v>
+        <v>25292</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46885</v>
+        <v>47321</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03363806475135199</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02355488006256876</v>
+        <v>0.02467892019852337</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04574786112677029</v>
+        <v>0.04617363264633505</v>
       </c>
     </row>
     <row r="14">
@@ -1446,19 +1446,19 @@
         <v>6921</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2383</v>
+        <v>2325</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14119</v>
+        <v>13087</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01452363801233611</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.00500016581252163</v>
+        <v>0.004878348038840324</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02962810616759826</v>
+        <v>0.02746117912005693</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -1467,19 +1467,19 @@
         <v>4153</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9559</v>
+        <v>9818</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.009924665717833384</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.003470295104068094</v>
+        <v>0.003447911762958641</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02284309689091378</v>
+        <v>0.02346238624044674</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>11</v>
@@ -1488,19 +1488,19 @@
         <v>11074</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>6036</v>
+        <v>5916</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>19705</v>
+        <v>19366</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.01237335172070761</v>
+        <v>0.01237335172070762</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.006743877121892259</v>
+        <v>0.00660968419047091</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02201670297623164</v>
+        <v>0.02163779634077967</v>
       </c>
     </row>
     <row r="16">
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7930</v>
+        <v>7873</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00330928716931825</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01664086565879177</v>
+        <v>0.01652068822424076</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1554,16 +1554,16 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7865</v>
+        <v>8015</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.001762003476447791</v>
+        <v>0.001762003476447792</v>
       </c>
       <c r="V16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008787471719038422</v>
+        <v>0.008955427005325225</v>
       </c>
     </row>
     <row r="17">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3028</v>
+        <v>2965</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.001462175188512234</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.00723585735581145</v>
+        <v>0.007086210663072028</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -1617,16 +1617,16 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3083</v>
+        <v>3311</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.0006836517079207867</v>
+        <v>0.0006836517079207868</v>
       </c>
       <c r="V17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.003445002437895753</v>
+        <v>0.003699559392159615</v>
       </c>
     </row>
     <row r="18">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4670</v>
+        <v>4730</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.001964211891253713</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.009800183504670127</v>
+        <v>0.009925332697756119</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>4705</v>
+        <v>4736</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.001045828906284409</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.005256880350404888</v>
+        <v>0.005291106220949057</v>
       </c>
     </row>
     <row r="19">
@@ -1753,19 +1753,19 @@
         <v>9172</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4232</v>
+        <v>4141</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18170</v>
+        <v>17482</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01924588599983605</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008881092021514681</v>
+        <v>0.008690433248104906</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03812828132245912</v>
+        <v>0.0366856767068988</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1774,19 +1774,19 @@
         <v>4467</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1613</v>
+        <v>1635</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9598</v>
+        <v>9185</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01067553629540019</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003854890106375808</v>
+        <v>0.003907531904600454</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02293519589929507</v>
+        <v>0.02194916209696854</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>14</v>
@@ -1795,19 +1795,19 @@
         <v>13639</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7978</v>
+        <v>7536</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>22845</v>
+        <v>22629</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.01523875042610383</v>
+        <v>0.01523875042610384</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008913288971509749</v>
+        <v>0.008419618606826215</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0255242466955842</v>
+        <v>0.0252828746027424</v>
       </c>
     </row>
     <row r="21">
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5651</v>
+        <v>6330</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.003842440250166461</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01185845343978719</v>
+        <v>0.0132823694889978</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1845,19 +1845,19 @@
         <v>2116</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6073</v>
+        <v>5735</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.005056599990061153</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.001667852816141189</v>
+        <v>0.001651684695585384</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01451318324528926</v>
+        <v>0.01370340908679134</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -1866,19 +1866,19 @@
         <v>3947</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>8968</v>
+        <v>9223</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.00441013035077079</v>
+        <v>0.004410130350770791</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.001581421983282231</v>
+        <v>0.001584207568791698</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01002008828576089</v>
+        <v>0.01030490449408543</v>
       </c>
     </row>
     <row r="22">
@@ -1895,19 +1895,19 @@
         <v>430714</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>416751</v>
+        <v>415144</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>442898</v>
+        <v>442396</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9038211390006877</v>
+        <v>0.9038211390006878</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8745195934804085</v>
+        <v>0.8711478483326676</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.929388982713515</v>
+        <v>0.928334076354089</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>519</v>
@@ -1916,19 +1916,19 @@
         <v>366917</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>355156</v>
+        <v>354109</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>378515</v>
+        <v>378645</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8767964095020283</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8486907407750196</v>
+        <v>0.8461883647474649</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9045109066678948</v>
+        <v>0.9048199035631781</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>948</v>
@@ -1937,19 +1937,19 @@
         <v>797632</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>778138</v>
+        <v>779447</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>813163</v>
+        <v>814216</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8911855105048612</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8694056988675768</v>
+        <v>0.8708681727324256</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9085391605876314</v>
+        <v>0.9097155328122198</v>
       </c>
     </row>
     <row r="23">
@@ -1966,19 +1966,19 @@
         <v>10123</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5263</v>
+        <v>4905</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18590</v>
+        <v>18712</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02124250223196333</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01104438571730409</v>
+        <v>0.01029260569272671</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03900938890473357</v>
+        <v>0.03926593896078094</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>18</v>
@@ -1987,19 +1987,19 @@
         <v>13713</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8249</v>
+        <v>8256</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20516</v>
+        <v>20786</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03276812036873245</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01971110340405292</v>
+        <v>0.01972847916659341</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04902592982780504</v>
+        <v>0.04967022991614443</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>28</v>
@@ -2008,19 +2008,19 @@
         <v>23836</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>16124</v>
+        <v>16637</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>33932</v>
+        <v>33906</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0266313972056651</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01801501199336812</v>
+        <v>0.01858843445974638</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03791232437848049</v>
+        <v>0.03788333231238257</v>
       </c>
     </row>
     <row r="24">
@@ -2037,19 +2037,19 @@
         <v>28103</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18823</v>
+        <v>19514</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>39743</v>
+        <v>41192</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.05897214498385215</v>
+        <v>0.05897214498385214</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03949928987634894</v>
+        <v>0.04094958612885279</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08339826775359389</v>
+        <v>0.0864389471585018</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>35</v>
@@ -2058,19 +2058,19 @@
         <v>28497</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>20095</v>
+        <v>20324</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>39007</v>
+        <v>38956</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.06809762295390125</v>
+        <v>0.06809762295390126</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04801896568243973</v>
+        <v>0.04856604417515575</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09321279524394882</v>
+        <v>0.09309010888235719</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>65</v>
@@ -2079,19 +2079,19 @@
         <v>56600</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>44735</v>
+        <v>43278</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>72117</v>
+        <v>71251</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06323883521962713</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04998171472185989</v>
+        <v>0.04835412948786547</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08057545040338612</v>
+        <v>0.07960756841190809</v>
       </c>
     </row>
     <row r="25">
@@ -2121,19 +2121,19 @@
         <v>5042</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1454</v>
+        <v>1531</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11802</v>
+        <v>11404</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01204739640859335</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003474463741331181</v>
+        <v>0.003658083256847783</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0282019264902891</v>
+        <v>0.02725098011133362</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -2142,19 +2142,19 @@
         <v>5042</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2014</v>
+        <v>1571</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12170</v>
+        <v>11621</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.005632856579322732</v>
+        <v>0.005632856579322733</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002249716181721248</v>
+        <v>0.001755628823203501</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01359796024500043</v>
+        <v>0.0129837769589778</v>
       </c>
     </row>
     <row r="26">
@@ -2175,19 +2175,19 @@
         <v>7239</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3241</v>
+        <v>2812</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14747</v>
+        <v>14418</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0157255891175973</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007041019558681505</v>
+        <v>0.006108122522649935</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03203433386422103</v>
+        <v>0.03132141073312664</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2196,19 +2196,19 @@
         <v>2668</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>747</v>
+        <v>772</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6274</v>
+        <v>6337</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01439354355314878</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004028290466402145</v>
+        <v>0.004163633462681255</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03384778736210541</v>
+        <v>0.03418609052417996</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -2217,19 +2217,19 @@
         <v>9907</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5369</v>
+        <v>5382</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18532</v>
+        <v>17670</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01534318105995176</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008315053200422969</v>
+        <v>0.008334347749955144</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02869986385204827</v>
+        <v>0.02736495127943839</v>
       </c>
     </row>
     <row r="27">
@@ -2249,16 +2249,16 @@
         <v>2254</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>13563</v>
+        <v>12734</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01434052302035354</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.004895525612568739</v>
+        <v>0.004895585741074992</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02946225033853499</v>
+        <v>0.02766235534627908</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3</v>
@@ -2267,19 +2267,19 @@
         <v>2200</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>687</v>
+        <v>660</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>6824</v>
+        <v>5945</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01186631474564304</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.003706371230529274</v>
+        <v>0.003562660092016285</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0368117521112329</v>
+        <v>0.03206878185336522</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>9</v>
@@ -2288,19 +2288,19 @@
         <v>8801</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4077</v>
+        <v>4567</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>15715</v>
+        <v>17112</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0136302191044854</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.006314092720757087</v>
+        <v>0.007072123170377662</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02433744460955582</v>
+        <v>0.02650104449384719</v>
       </c>
     </row>
     <row r="28">
@@ -2364,19 +2364,19 @@
         <v>6890</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2732</v>
+        <v>2605</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14819</v>
+        <v>14741</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01496653544214005</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005933951307331737</v>
+        <v>0.005658612976905208</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03219080069423676</v>
+        <v>0.03202164575576646</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5053</v>
+        <v>4135</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.007195976613195218</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02726006046272712</v>
+        <v>0.02230483638579753</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8</v>
@@ -2406,19 +2406,19 @@
         <v>8224</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3372</v>
+        <v>3552</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>15919</v>
+        <v>16680</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01273573764670018</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.00522270094756239</v>
+        <v>0.005500156183603193</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02465410439373144</v>
+        <v>0.02583282695742267</v>
       </c>
     </row>
     <row r="30">
@@ -2482,19 +2482,19 @@
         <v>5494</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2005</v>
+        <v>1705</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>11597</v>
+        <v>11678</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.01193546768763796</v>
+        <v>0.01193546768763795</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.004354474277318699</v>
+        <v>0.003702880404360831</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02519312624323017</v>
+        <v>0.02536782120659887</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2516,19 +2516,19 @@
         <v>5494</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1984</v>
+        <v>1869</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>11754</v>
+        <v>12024</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.008508994046392507</v>
+        <v>0.008508994046392505</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.003072745361358359</v>
+        <v>0.002894313937597438</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01820362689716111</v>
+        <v>0.01862079040381262</v>
       </c>
     </row>
     <row r="32">
@@ -2545,19 +2545,19 @@
         <v>8857</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4102</v>
+        <v>4163</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>17393</v>
+        <v>17118</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.01924130077276413</v>
+        <v>0.01924130077276414</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008910283833746546</v>
+        <v>0.009043304723722044</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03778336451724394</v>
+        <v>0.0371861219310224</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -2566,19 +2566,19 @@
         <v>2571</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>723</v>
+        <v>618</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6097</v>
+        <v>6464</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01386711002281385</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003898958405078899</v>
+        <v>0.003335962183610498</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03288962125801374</v>
+        <v>0.0348704859905749</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>13</v>
@@ -2587,19 +2587,19 @@
         <v>11428</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6072</v>
+        <v>5998</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>19214</v>
+        <v>19067</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01769846027169165</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.009403373289274656</v>
+        <v>0.009289154504876915</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02975606526413175</v>
+        <v>0.02952803030925668</v>
       </c>
     </row>
     <row r="33">
@@ -2616,19 +2616,19 @@
         <v>380518</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>362966</v>
+        <v>363879</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>396445</v>
+        <v>395840</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.8266084953345353</v>
+        <v>0.8266084953345354</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7884807722327115</v>
+        <v>0.7904631006738038</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8612081036936233</v>
+        <v>0.859892942180701</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>255</v>
@@ -2637,19 +2637,19 @@
         <v>163425</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>155607</v>
+        <v>154291</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>170108</v>
+        <v>169898</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.8816074974941677</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.8394323834222621</v>
+        <v>0.8323337015930216</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.9176594132761945</v>
+        <v>0.9165225942798835</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>648</v>
@@ -2658,19 +2658,19 @@
         <v>543944</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>525008</v>
+        <v>525363</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>560474</v>
+        <v>561210</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.8423977912487599</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.8130723301217949</v>
+        <v>0.8136222649634942</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.8679973649008311</v>
+        <v>0.8691382715297111</v>
       </c>
     </row>
     <row r="34">
@@ -2687,19 +2687,19 @@
         <v>24183</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>15416</v>
+        <v>16202</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>34940</v>
+        <v>35586</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05253275972316102</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03348845075566058</v>
+        <v>0.03519586385298031</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.075901436669344</v>
+        <v>0.07730523860670016</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -2708,19 +2708,19 @@
         <v>4467</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1817</v>
+        <v>1714</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8763</v>
+        <v>8682</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02409972280833473</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.009801667925368136</v>
+        <v>0.009245229453648939</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04727056720621593</v>
+        <v>0.04683735681663803</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>33</v>
@@ -2729,19 +2729,19 @@
         <v>28650</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>19982</v>
+        <v>20091</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>40939</v>
+        <v>40299</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04437010920297084</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03094584418980894</v>
+        <v>0.03111453359334018</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06340172189679563</v>
+        <v>0.06240985438973534</v>
       </c>
     </row>
     <row r="35">
@@ -2758,19 +2758,19 @@
         <v>45629</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>33305</v>
+        <v>34519</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>59068</v>
+        <v>60024</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.09912018606313729</v>
+        <v>0.0991201860631373</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07234834447726393</v>
+        <v>0.07498713654345814</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1283151752114585</v>
+        <v>0.1303912609782576</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>20</v>
@@ -2779,19 +2779,19 @@
         <v>14418</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>9222</v>
+        <v>9017</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>21447</v>
+        <v>22693</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.07777934701886122</v>
+        <v>0.07777934701886123</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04975051507249856</v>
+        <v>0.04864395491728694</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1156969419610508</v>
+        <v>0.1224198726733089</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>71</v>
@@ -2800,19 +2800,19 @@
         <v>60047</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>46710</v>
+        <v>47429</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>73872</v>
+        <v>75062</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.09299358722503638</v>
+        <v>0.09299358722503639</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07233949841846964</v>
+        <v>0.07345255205727302</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1144046958239878</v>
+        <v>0.1162477519892949</v>
       </c>
     </row>
     <row r="36">
@@ -2829,19 +2829,19 @@
         <v>6744</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2531</v>
+        <v>2808</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14458</v>
+        <v>14501</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01465072498296442</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005497865486239338</v>
+        <v>0.006099437040158651</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03140754013229021</v>
+        <v>0.03150157644967706</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -2863,19 +2863,19 @@
         <v>6744</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2898</v>
+        <v>2616</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>15302</v>
+        <v>14961</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0104447462737046</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.004487773400168002</v>
+        <v>0.004051505464410614</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02369731463266675</v>
+        <v>0.02317063421376304</v>
       </c>
     </row>
     <row r="37">
@@ -2896,19 +2896,19 @@
         <v>24959</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>15671</v>
+        <v>15225</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>39356</v>
+        <v>37995</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.022494221547615</v>
+        <v>0.02249422154761499</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01412373946735254</v>
+        <v>0.01372146528951474</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03546977390203247</v>
+        <v>0.03424275807736446</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>20</v>
@@ -2917,19 +2917,19 @@
         <v>16283</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>10231</v>
+        <v>10465</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>24948</v>
+        <v>25004</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01967881947124615</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01236503762447613</v>
+        <v>0.01264737204876075</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03015051824260859</v>
+        <v>0.03021840530263169</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>40</v>
@@ -2938,19 +2938,19 @@
         <v>41242</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>28745</v>
+        <v>29476</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>55527</v>
+        <v>55339</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02129156097318115</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01483993143722853</v>
+        <v>0.01521726616506298</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02866669783516069</v>
+        <v>0.02856959758027852</v>
       </c>
     </row>
     <row r="38">
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>7579</v>
+        <v>7563</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.00116035522673355</v>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.006830749862706264</v>
+        <v>0.006815953259586652</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3485</v>
+        <v>3991</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.0008396178274834852</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.004212175516182574</v>
+        <v>0.004822879273429649</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>6660</v>
+        <v>7601</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.001023345231585005</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.003438347299894197</v>
+        <v>0.003924305562637416</v>
       </c>
     </row>
     <row r="39">
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>4313</v>
+        <v>4095</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.0009788092009094583</v>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.005212560113850839</v>
+        <v>0.00494934716225893</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>3652</v>
+        <v>3296</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.000418119758349099</v>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.001885396927496844</v>
+        <v>0.001701446493237711</v>
       </c>
     </row>
     <row r="40">
@@ -3101,19 +3101,19 @@
         <v>11977</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5408</v>
+        <v>4636</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>28495</v>
+        <v>24908</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01079469432920349</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.004874416783257576</v>
+        <v>0.004178163060872477</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02568131663332862</v>
+        <v>0.02244854233526578</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>5</v>
@@ -3122,19 +3122,19 @@
         <v>3408</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1315</v>
+        <v>1333</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>7463</v>
+        <v>7932</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.004118163364194218</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001589469150721132</v>
+        <v>0.001610633414914684</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.009019840020878109</v>
+        <v>0.009586432904273644</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>12</v>
@@ -3143,19 +3143,19 @@
         <v>15385</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>8204</v>
+        <v>7684</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>30007</v>
+        <v>29742</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.007942668100694241</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.004235479597986641</v>
+        <v>0.003966837879403907</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01549153667083502</v>
+        <v>0.01535467401444645</v>
       </c>
     </row>
     <row r="41">
@@ -3175,16 +3175,16 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6226</v>
+        <v>5645</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.001018062249581625</v>
+        <v>0.001018062249581624</v>
       </c>
       <c r="H41" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.005611244997724602</v>
+        <v>0.005087838777471795</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>6865</v>
+        <v>6423</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.002181386175496236</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.008296217800527946</v>
+        <v>0.007762910864570462</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3</v>
@@ -3214,19 +3214,19 @@
         <v>2935</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>801</v>
+        <v>816</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>8209</v>
+        <v>8392</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.001515001508359737</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0004134157185223576</v>
+        <v>0.0004212648054397345</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.004237990550707046</v>
+        <v>0.004332308752767093</v>
       </c>
     </row>
     <row r="42">
@@ -3243,19 +3243,19 @@
         <v>10337</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5220</v>
+        <v>5312</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>18984</v>
+        <v>18905</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.009316195250073014</v>
+        <v>0.00931619525007301</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.004704253914423639</v>
+        <v>0.004787492969294443</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.01710900075811517</v>
+        <v>0.01703803395104913</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>10</v>
@@ -3264,19 +3264,19 @@
         <v>7635</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3717</v>
+        <v>4010</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>13559</v>
+        <v>13633</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.009226800698438882</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.004492660640424119</v>
+        <v>0.004846763526313819</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.01638730045138812</v>
+        <v>0.01647591066928788</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>20</v>
@@ -3285,19 +3285,19 @@
         <v>17972</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>10431</v>
+        <v>10872</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>27848</v>
+        <v>27893</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.009278008412135384</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.005385014489478671</v>
+        <v>0.005612700567072922</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01437695622451831</v>
+        <v>0.01439990590991467</v>
       </c>
     </row>
     <row r="43">
@@ -3314,19 +3314,19 @@
         <v>17691</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>10740</v>
+        <v>10726</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>29575</v>
+        <v>28632</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01594382478325947</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.009679557923402768</v>
+        <v>0.009666522395416165</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02665470073977247</v>
+        <v>0.02580455055384572</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>11</v>
@@ -3335,19 +3335,19 @@
         <v>8318</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>4567</v>
+        <v>4263</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>14890</v>
+        <v>14453</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01005219825925494</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.005519673631923067</v>
+        <v>0.005152116536091974</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.01799531746180284</v>
+        <v>0.01746720910352691</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>29</v>
@@ -3356,19 +3356,19 @@
         <v>26008</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>17025</v>
+        <v>17444</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>37882</v>
+        <v>39342</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01342708765388732</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.008789372053831856</v>
+        <v>0.009005572444717107</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.01955706019865402</v>
+        <v>0.02031053344828023</v>
       </c>
     </row>
     <row r="44">
@@ -3385,19 +3385,19 @@
         <v>926914</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>895590</v>
+        <v>897963</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>951803</v>
+        <v>953597</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.8353831817612412</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8071523447767118</v>
+        <v>0.8092902371363965</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8578138797432551</v>
+        <v>0.85943055790784</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1063</v>
@@ -3406,19 +3406,19 @@
         <v>735507</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>718713</v>
+        <v>720242</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>750511</v>
+        <v>752502</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8889027423791385</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.868607185981616</v>
+        <v>0.8704550849124977</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9070368423703876</v>
+        <v>0.9094431136574941</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1996</v>
@@ -3427,19 +3427,19 @@
         <v>1662421</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1629209</v>
+        <v>1629343</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1692139</v>
+        <v>1693234</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.8582452326407313</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8410990336725108</v>
+        <v>0.8411681824907982</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8735876776758855</v>
+        <v>0.8741525850809212</v>
       </c>
     </row>
     <row r="45">
@@ -3456,19 +3456,19 @@
         <v>56794</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>43636</v>
+        <v>43094</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>75611</v>
+        <v>75415</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.05118537642580677</v>
+        <v>0.05118537642580676</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.03932710549308029</v>
+        <v>0.03883849229571692</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.06814472698255714</v>
+        <v>0.06796750003076704</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>23</v>
@@ -3477,19 +3477,19 @@
         <v>17121</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>11056</v>
+        <v>11208</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>25742</v>
+        <v>25311</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.02069116878739169</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.01336167128629826</v>
+        <v>0.01354578513171431</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.03111094171579255</v>
+        <v>0.03059009827506738</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>75</v>
@@ -3498,19 +3498,19 @@
         <v>73914</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>58081</v>
+        <v>56759</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>95877</v>
+        <v>91849</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.03815910867416067</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.02998500179540383</v>
+        <v>0.02930277781939392</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.04949754268962746</v>
+        <v>0.04741795513268554</v>
       </c>
     </row>
     <row r="46">
@@ -3527,19 +3527,19 @@
         <v>111364</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>90649</v>
+        <v>92034</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>134674</v>
+        <v>139307</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.100367337616431</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.08169765508001033</v>
+        <v>0.08294581430571211</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1213748083211818</v>
+        <v>0.125550943119915</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>76</v>
@@ -3548,19 +3548,19 @@
         <v>60097</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>47018</v>
+        <v>46731</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>73942</v>
+        <v>74449</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.07263125983383363</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.05682341695524457</v>
+        <v>0.05647684962472572</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.08936335255045454</v>
+        <v>0.08997570593290764</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>182</v>
@@ -3569,19 +3569,19 @@
         <v>171462</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>144975</v>
+        <v>145466</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>197703</v>
+        <v>199334</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.08851926535757186</v>
+        <v>0.08851926535757185</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07484503473883972</v>
+        <v>0.07509876687600543</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1020664576217556</v>
+        <v>0.1029083825894787</v>
       </c>
     </row>
     <row r="47">
@@ -3598,19 +3598,19 @@
         <v>9231</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2858</v>
+        <v>2832</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>25305</v>
+        <v>22316</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.008319392770789842</v>
+        <v>0.008319392770789838</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.002575584760076779</v>
+        <v>0.002551904523450964</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02280646509090222</v>
+        <v>0.02011268714111943</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3596</v>
+        <v>4048</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.0008735767454781664</v>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.00434584147856136</v>
+        <v>0.004891876299165837</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>6</v>
@@ -3640,19 +3640,19 @@
         <v>9954</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>3459</v>
+        <v>3599</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>25563</v>
+        <v>23170</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.005138749603232257</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.00178580397794224</v>
+        <v>0.001858094011441579</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01319710738836218</v>
+        <v>0.01196165475366039</v>
       </c>
     </row>
     <row r="48">
@@ -3673,19 +3673,19 @@
         <v>11921</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>6203</v>
+        <v>6302</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>20510</v>
+        <v>19457</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.02235143958599804</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.01162987868326062</v>
+        <v>0.01181704989471211</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.03845592435404213</v>
+        <v>0.0364815359014994</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>36</v>
@@ -3694,19 +3694,19 @@
         <v>30492</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>21233</v>
+        <v>21381</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>45627</v>
+        <v>45350</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.038249613681664</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.02663493578774009</v>
+        <v>0.0268204125370466</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.05723592464321847</v>
+        <v>0.05688874407028251</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>48</v>
@@ -3715,19 +3715,19 @@
         <v>42412</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>30371</v>
+        <v>30623</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>57062</v>
+        <v>58854</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.031876823964242</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.02282638696215104</v>
+        <v>0.02301562673220345</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.04288736918403297</v>
+        <v>0.04423383329632141</v>
       </c>
     </row>
     <row r="49">
@@ -3747,16 +3747,16 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>8570</v>
+        <v>8055</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.002816157111529469</v>
+        <v>0.002816157111529468</v>
       </c>
       <c r="H49" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.01606955646194131</v>
+        <v>0.0151022473492707</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>3617</v>
+        <v>3582</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.0008886497131647334</v>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.004537703748525405</v>
+        <v>0.004493767704590374</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>2</v>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>8714</v>
+        <v>8887</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.001661291857768136</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.006549328732218471</v>
+        <v>0.006679288325977781</v>
       </c>
     </row>
     <row r="50">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.01385578398546595</v>
+        <v>0.01385563534479413</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>11</v>
@@ -3883,19 +3883,19 @@
         <v>8723</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>4506</v>
+        <v>4376</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>16962</v>
+        <v>15824</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.01094201135544554</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.005653048433220794</v>
+        <v>0.005488809500522603</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.02127743570042677</v>
+        <v>0.01985043204708878</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>13</v>
@@ -3904,19 +3904,19 @@
         <v>10742</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>5598</v>
+        <v>5893</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>18299</v>
+        <v>19107</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.008073626168286071</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.004207347798063079</v>
+        <v>0.004429257197589058</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.0137530921241922</v>
+        <v>0.01436044750710579</v>
       </c>
     </row>
     <row r="52">
@@ -3946,19 +3946,19 @@
         <v>2349</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>7100</v>
+        <v>6781</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.002946061519452511</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0009254690388130208</v>
+        <v>0.0009242600769640266</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.008906424659793022</v>
+        <v>0.008505811297364361</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>3</v>
@@ -3967,19 +3967,19 @@
         <v>2349</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>7574</v>
+        <v>5685</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.00176513153056921</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.0005537748134208075</v>
+        <v>0.0005513136036479927</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.005692593370141946</v>
+        <v>0.004272997272215705</v>
       </c>
     </row>
     <row r="53">
@@ -3999,16 +3999,16 @@
         <v>0</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>7216</v>
+        <v>7174</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.004098455700883108</v>
+        <v>0.004098455700883107</v>
       </c>
       <c r="H53" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01352936036908332</v>
+        <v>0.01345174402992361</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>10</v>
@@ -4017,19 +4017,19 @@
         <v>7961</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>4249</v>
+        <v>3743</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>14479</v>
+        <v>14354</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.00998607366706507</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.005330595602229694</v>
+        <v>0.004695881342166485</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.01816284548323344</v>
+        <v>0.01800633193583995</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>12</v>
@@ -4038,19 +4038,19 @@
         <v>10146</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>5263</v>
+        <v>5260</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>17193</v>
+        <v>17573</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.007626019549578584</v>
+        <v>0.007626019549578586</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.003955365965093373</v>
+        <v>0.003953458330850356</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01292226009772657</v>
+        <v>0.01320756674888179</v>
       </c>
     </row>
     <row r="54">
@@ -4067,19 +4067,19 @@
         <v>11038</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>5954</v>
+        <v>5173</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>19355</v>
+        <v>19558</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.02069577477379961</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.01116347509625549</v>
+        <v>0.009699555395161418</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.03629136951514535</v>
+        <v>0.03667125696074362</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>24</v>
@@ -4088,19 +4088,19 @@
         <v>16605</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>10560</v>
+        <v>10790</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>23747</v>
+        <v>24054</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.02082942191158349</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.0132470546488711</v>
+        <v>0.01353477324975004</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.02978844271996779</v>
+        <v>0.03017458596587645</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>35</v>
@@ -4109,19 +4109,19 @@
         <v>27642</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>18796</v>
+        <v>19352</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>39254</v>
+        <v>38047</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.02077584940065821</v>
+        <v>0.02077584940065822</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.01412706853856403</v>
+        <v>0.01454478717135261</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.02950324809221128</v>
+        <v>0.02859597712845748</v>
       </c>
     </row>
     <row r="55">
@@ -4138,19 +4138,19 @@
         <v>428084</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>406972</v>
+        <v>405454</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>446567</v>
+        <v>448393</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.8026546978225975</v>
+        <v>0.8026546978225974</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.7630708894051896</v>
+        <v>0.7602232116163805</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.8373110093309616</v>
+        <v>0.8407333821908467</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1024</v>
@@ -4159,19 +4159,19 @@
         <v>636222</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>615568</v>
+        <v>613625</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>655462</v>
+        <v>654208</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.798097151166738</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.772188061836746</v>
+        <v>0.769749958919649</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.8222320155388934</v>
+        <v>0.8206592557521399</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1442</v>
@@ -4180,19 +4180,19 @@
         <v>1064307</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1033366</v>
+        <v>1030567</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1090580</v>
+        <v>1088996</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.7999240456447051</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.776669019758806</v>
+        <v>0.7745656245686283</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.8196709210227151</v>
+        <v>0.8184797910499048</v>
       </c>
     </row>
     <row r="56">
@@ -4209,19 +4209,19 @@
         <v>41914</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>28847</v>
+        <v>28616</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>61822</v>
+        <v>61096</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.07858911180898223</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.05408830164510563</v>
+        <v>0.05365535976597786</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1159153451672447</v>
+        <v>0.1145553968330765</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>65</v>
@@ -4230,19 +4230,19 @@
         <v>46148</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>35669</v>
+        <v>35654</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>59344</v>
+        <v>57831</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.05788892382762714</v>
+        <v>0.05788892382762712</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.04474471544046017</v>
+        <v>0.04472495465333581</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.07444346278110268</v>
+        <v>0.07254493121204124</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>100</v>
@@ -4251,19 +4251,19 @@
         <v>88062</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>69566</v>
+        <v>72391</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>109238</v>
+        <v>107394</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.06618660281406145</v>
+        <v>0.06618660281406147</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.05228505511372079</v>
+        <v>0.05440837822417895</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.08210224661298711</v>
+        <v>0.08071605544155534</v>
       </c>
     </row>
     <row r="57">
@@ -4280,19 +4280,19 @@
         <v>72226</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>57419</v>
+        <v>55690</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>90330</v>
+        <v>89998</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1354234386831584</v>
+        <v>0.1354234386831583</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.1076597661967075</v>
+        <v>0.104419063888292</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1693681360831278</v>
+        <v>0.1687452411003641</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>161</v>
@@ -4301,19 +4301,19 @@
         <v>118147</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>101276</v>
+        <v>101627</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>137391</v>
+        <v>138879</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.148207143170227</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.1270437726964821</v>
+        <v>0.127483980454611</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.1723475061582833</v>
+        <v>0.1742147550837616</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>232</v>
@@ -4322,19 +4322,19 @@
         <v>190373</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>166723</v>
+        <v>167945</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>216333</v>
+        <v>218751</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.1430827898944655</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.1253077918180251</v>
+        <v>0.1262262344064545</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.1625936850273554</v>
+        <v>0.1644114183544955</v>
       </c>
     </row>
     <row r="58">
@@ -4354,16 +4354,16 @@
         <v>0</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>9419</v>
+        <v>9610</v>
       </c>
       <c r="G58" s="6" t="n">
-        <v>0.005193524474300767</v>
+        <v>0.005193524474300766</v>
       </c>
       <c r="H58" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.01765983893647771</v>
+        <v>0.01801802350931675</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>8</v>
@@ -4372,19 +4372,19 @@
         <v>5697</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>2684</v>
+        <v>2650</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>10915</v>
+        <v>10561</v>
       </c>
       <c r="N58" s="6" t="n">
-        <v>0.007146089090740061</v>
+        <v>0.007146089090740059</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.003366669578691243</v>
+        <v>0.003323690819989268</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.01369262550249342</v>
+        <v>0.01324865129427951</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>10</v>
@@ -4393,19 +4393,19 @@
         <v>8467</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>4301</v>
+        <v>4146</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>15686</v>
+        <v>15500</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.006363402749820031</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.003232299269728033</v>
+        <v>0.003116274029054328</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.01178973414548263</v>
+        <v>0.01165004047195327</v>
       </c>
     </row>
     <row r="59">
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>9666</v>
+        <v>10617</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.008566520083551877</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.04544455506440813</v>
+        <v>0.04991739490307952</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>21</v>
@@ -4447,19 +4447,19 @@
         <v>24232</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>14784</v>
+        <v>14408</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>40719</v>
+        <v>39883</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.03040257678502771</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.01854917063311445</v>
+        <v>0.01807691328503744</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.05108930162392299</v>
+        <v>0.05003960801492794</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>22</v>
@@ -4468,19 +4468,19 @@
         <v>26054</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>15019</v>
+        <v>15249</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>39887</v>
+        <v>41234</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.0258028689579068</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.01487459387528037</v>
+        <v>0.01510245008909934</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.0395027733602641</v>
+        <v>0.04083752650817177</v>
       </c>
     </row>
     <row r="60">
@@ -4510,19 +4510,19 @@
         <v>2331</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>6424</v>
+        <v>6782</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.002924951308029479</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.0008453497603272444</v>
+        <v>0.000843202108843825</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.008060143065006081</v>
+        <v>0.008509210852522138</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>3</v>
@@ -4531,19 +4531,19 @@
         <v>2331</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>6840</v>
+        <v>7280</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.002308818019431568</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.0006580283473695336</v>
+        <v>0.0006620238731040882</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.006774156683073875</v>
+        <v>0.007209578094381858</v>
       </c>
     </row>
     <row r="61">
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>11435</v>
+        <v>11326</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.002530999013230556</v>
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.01434705652726292</v>
+        <v>0.0142097796180798</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>1</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>10441</v>
+        <v>10095</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.001997850737845969</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.01034003206270296</v>
+        <v>0.009998179879636878</v>
       </c>
     </row>
     <row r="62">
@@ -4636,19 +4636,19 @@
         <v>2857</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>7263</v>
+        <v>6791</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.003584260057072647</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.0009045927233045727</v>
+        <v>0.0008934028319314302</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.00911277593621415</v>
+        <v>0.008520461640806226</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>4</v>
@@ -4657,19 +4657,19 @@
         <v>2857</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>7332</v>
+        <v>7145</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.002829245117134355</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.0007108796480607888</v>
+        <v>0.0007163527965734976</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.007261083955681674</v>
+        <v>0.007076128955562802</v>
       </c>
     </row>
     <row r="63">
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>4445</v>
+        <v>4129</v>
       </c>
       <c r="N63" s="6" t="n">
         <v>0.0009279406935619139</v>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.005577514638264201</v>
+        <v>0.005180728507378716</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>1</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>3703</v>
+        <v>3762</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.0007324724306959238</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.003666967590511641</v>
+        <v>0.003726089248932873</v>
       </c>
     </row>
     <row r="64">
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>9634</v>
+        <v>9190</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.008416606652688749</v>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.04529657690759985</v>
+        <v>0.04320596856379972</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>2</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>4736</v>
+        <v>4921</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.001722836766084967</v>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.00594160672323132</v>
+        <v>0.006174716551722034</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>3</v>
@@ -4791,19 +4791,19 @@
         <v>3163</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>634</v>
+        <v>744</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>11077</v>
+        <v>10879</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.003132861761040979</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.00062791328952501</v>
+        <v>0.0007368642222447181</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.01097036016238007</v>
+        <v>0.01077411198987183</v>
       </c>
     </row>
     <row r="65">
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>11946</v>
+        <v>12552</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.01147604110013665</v>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.05616585505870417</v>
+        <v>0.05901266541092828</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>13</v>
@@ -4841,19 +4841,19 @@
         <v>10728</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>5886</v>
+        <v>5901</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>19470</v>
+        <v>20024</v>
       </c>
       <c r="N65" s="6" t="n">
-        <v>0.01346063505310941</v>
+        <v>0.0134606350531094</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.007385438278151358</v>
+        <v>0.007403285887471414</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.02442880824181497</v>
+        <v>0.02512284634987976</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>14</v>
@@ -4862,19 +4862,19 @@
         <v>13169</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>7064</v>
+        <v>7160</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>24807</v>
+        <v>24276</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.01304258556441538</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.006995790961631204</v>
+        <v>0.007091547911065589</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.02456797278399862</v>
+        <v>0.02404279094642064</v>
       </c>
     </row>
     <row r="66">
@@ -4891,19 +4891,19 @@
         <v>192866</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>175042</v>
+        <v>176654</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>203082</v>
+        <v>203723</v>
       </c>
       <c r="G66" s="6" t="n">
-        <v>0.9067712546468768</v>
+        <v>0.9067712546468767</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.8229719201566752</v>
+        <v>0.8305529721032997</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.9548022968476393</v>
+        <v>0.9578187652235549</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>922</v>
@@ -4912,19 +4912,19 @@
         <v>648918</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>626889</v>
+        <v>626800</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>669474</v>
+        <v>668308</v>
       </c>
       <c r="N66" s="6" t="n">
         <v>0.8141756130797162</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.7865358056095729</v>
+        <v>0.7864247731099057</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.8399660776438359</v>
+        <v>0.8385026785064773</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>1018</v>
@@ -4933,19 +4933,19 @@
         <v>841783</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>815401</v>
+        <v>813829</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>863529</v>
+        <v>866398</v>
       </c>
       <c r="U66" s="6" t="n">
-        <v>0.8336806410752226</v>
+        <v>0.8336806410752224</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.8075526220830718</v>
+        <v>0.8059957956354378</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.8552168649892625</v>
+        <v>0.8580585354909203</v>
       </c>
     </row>
     <row r="67">
@@ -4962,19 +4962,19 @@
         <v>6656</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>1295</v>
+        <v>1313</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>19656</v>
+        <v>21378</v>
       </c>
       <c r="G67" s="6" t="n">
         <v>0.03129152718316569</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.006086917088501245</v>
+        <v>0.006172580355975443</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.0924136232697213</v>
+        <v>0.1005095365496805</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>72</v>
@@ -4983,19 +4983,19 @@
         <v>55667</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>42898</v>
+        <v>43139</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>71057</v>
+        <v>71575</v>
       </c>
       <c r="N67" s="6" t="n">
         <v>0.06984292784948277</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.0538232590528118</v>
+        <v>0.05412484275446197</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.08915233354951371</v>
+        <v>0.08980293774770989</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>75</v>
@@ -5004,19 +5004,19 @@
         <v>62322</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>47481</v>
+        <v>47880</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>80527</v>
+        <v>80203</v>
       </c>
       <c r="U67" s="6" t="n">
         <v>0.06172217684505128</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.04702432390897289</v>
+        <v>0.04741894299664896</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.07975148420777253</v>
+        <v>0.07943107184257393</v>
       </c>
     </row>
     <row r="68">
@@ -5033,19 +5033,19 @@
         <v>14503</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>6324</v>
+        <v>5781</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>28541</v>
+        <v>28163</v>
       </c>
       <c r="G68" s="6" t="n">
         <v>0.06818854201732286</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.02973207132451913</v>
+        <v>0.02717846927388151</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.1341890660460716</v>
+        <v>0.1324119927892328</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>132</v>
@@ -5054,19 +5054,19 @@
         <v>104707</v>
       </c>
       <c r="L68" s="5" t="n">
-        <v>88048</v>
+        <v>86153</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>125342</v>
+        <v>124873</v>
       </c>
       <c r="N68" s="6" t="n">
         <v>0.1313721419926641</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>0.1104714273266569</v>
+        <v>0.1080931039733588</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.1572625920853679</v>
+        <v>0.1566732826783222</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>139</v>
@@ -5075,19 +5075,19 @@
         <v>119210</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>99210</v>
+        <v>99039</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>141281</v>
+        <v>143713</v>
       </c>
       <c r="U68" s="6" t="n">
         <v>0.1180626830859829</v>
       </c>
       <c r="V68" s="6" t="n">
-        <v>0.09825486168531296</v>
+        <v>0.09808604899920824</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.1399215522603646</v>
+        <v>0.1423295371609799</v>
       </c>
     </row>
     <row r="69">
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>4125</v>
+        <v>3529</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0.0008679256378110501</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>0.005174943632504124</v>
+        <v>0.004427370037411148</v>
       </c>
       <c r="Q69" s="5" t="n">
         <v>1</v>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>3561</v>
+        <v>3975</v>
       </c>
       <c r="U69" s="6" t="n">
         <v>0.000685099388356927</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.003527113122153995</v>
+        <v>0.003936904023569479</v>
       </c>
     </row>
     <row r="70">
@@ -5171,19 +5171,19 @@
         <v>63729</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>48275</v>
+        <v>47333</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>85108</v>
+        <v>82247</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.0190954991954309</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.0144648107353837</v>
+        <v>0.01418262198676754</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.02550135776077305</v>
+        <v>0.02464411264621228</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>90</v>
@@ -5192,19 +5192,19 @@
         <v>80958</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>64770</v>
+        <v>62633</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>103746</v>
+        <v>99289</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.0230952107099293</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.01847717918203245</v>
+        <v>0.0178676126831408</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.02959588286288605</v>
+        <v>0.02832442659305753</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>144</v>
@@ -5213,19 +5213,19 @@
         <v>144688</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>122502</v>
+        <v>121276</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>172084</v>
+        <v>171607</v>
       </c>
       <c r="U70" s="6" t="n">
-        <v>0.02114445367477122</v>
+        <v>0.02114445367477123</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.01790232902383441</v>
+        <v>0.01772314058500144</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.02514814409271042</v>
+        <v>0.02507847595499405</v>
       </c>
     </row>
     <row r="71">
@@ -5242,19 +5242,19 @@
         <v>12094</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>6121</v>
+        <v>5785</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>21811</v>
+        <v>21670</v>
       </c>
       <c r="G71" s="6" t="n">
-        <v>0.003623756790648719</v>
+        <v>0.003623756790648718</v>
       </c>
       <c r="H71" s="6" t="n">
-        <v>0.00183393726834331</v>
+        <v>0.001733256418666341</v>
       </c>
       <c r="I71" s="6" t="n">
-        <v>0.006535323829718854</v>
+        <v>0.006493075992558724</v>
       </c>
       <c r="J71" s="5" t="n">
         <v>11</v>
@@ -5263,19 +5263,19 @@
         <v>8038</v>
       </c>
       <c r="L71" s="5" t="n">
-        <v>4149</v>
+        <v>4206</v>
       </c>
       <c r="M71" s="5" t="n">
-        <v>14143</v>
+        <v>14108</v>
       </c>
       <c r="N71" s="6" t="n">
         <v>0.002293067284234532</v>
       </c>
       <c r="O71" s="6" t="n">
-        <v>0.00118356358805844</v>
+        <v>0.001199766564380036</v>
       </c>
       <c r="P71" s="6" t="n">
-        <v>0.004034493021883302</v>
+        <v>0.004024534765880683</v>
       </c>
       <c r="Q71" s="5" t="n">
         <v>21</v>
@@ -5284,19 +5284,19 @@
         <v>20132</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>12495</v>
+        <v>12823</v>
       </c>
       <c r="T71" s="5" t="n">
-        <v>29549</v>
+        <v>31549</v>
       </c>
       <c r="U71" s="6" t="n">
         <v>0.002942077070775111</v>
       </c>
       <c r="V71" s="6" t="n">
-        <v>0.001825958217600717</v>
+        <v>0.001873967832433961</v>
       </c>
       <c r="W71" s="6" t="n">
-        <v>0.004318206815129231</v>
+        <v>0.004610554289044405</v>
       </c>
     </row>
     <row r="72">
@@ -5326,19 +5326,19 @@
         <v>3439</v>
       </c>
       <c r="L72" s="5" t="n">
-        <v>613</v>
+        <v>730</v>
       </c>
       <c r="M72" s="5" t="n">
-        <v>11957</v>
+        <v>11043</v>
       </c>
       <c r="N72" s="6" t="n">
         <v>0.0009810705114729043</v>
       </c>
       <c r="O72" s="6" t="n">
-        <v>0.000174813085683067</v>
+        <v>0.0002083675881581058</v>
       </c>
       <c r="P72" s="6" t="n">
-        <v>0.003410939001333999</v>
+        <v>0.003150377916307334</v>
       </c>
       <c r="Q72" s="5" t="n">
         <v>3</v>
@@ -5347,19 +5347,19 @@
         <v>3439</v>
       </c>
       <c r="S72" s="5" t="n">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="T72" s="5" t="n">
-        <v>10753</v>
+        <v>11360</v>
       </c>
       <c r="U72" s="6" t="n">
         <v>0.0005025784514069392</v>
       </c>
       <c r="V72" s="6" t="n">
-        <v>8.961666539439635e-05</v>
+        <v>8.967189790494459e-05</v>
       </c>
       <c r="W72" s="6" t="n">
-        <v>0.001571430801904926</v>
+        <v>0.001660181854863827</v>
       </c>
     </row>
     <row r="73">
@@ -5376,19 +5376,19 @@
         <v>21822</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>12690</v>
+        <v>12803</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>39125</v>
+        <v>36679</v>
       </c>
       <c r="G73" s="6" t="n">
-        <v>0.006538751702915869</v>
+        <v>0.006538751702915872</v>
       </c>
       <c r="H73" s="6" t="n">
-        <v>0.003802447453222508</v>
+        <v>0.003836288413098714</v>
       </c>
       <c r="I73" s="6" t="n">
-        <v>0.01172313578724968</v>
+        <v>0.01099029716372085</v>
       </c>
       <c r="J73" s="5" t="n">
         <v>24</v>
@@ -5397,19 +5397,19 @@
         <v>17734</v>
       </c>
       <c r="L73" s="5" t="n">
-        <v>12154</v>
+        <v>11140</v>
       </c>
       <c r="M73" s="5" t="n">
-        <v>26990</v>
+        <v>26894</v>
       </c>
       <c r="N73" s="6" t="n">
-        <v>0.00505892058366551</v>
+        <v>0.005058920583665511</v>
       </c>
       <c r="O73" s="6" t="n">
-        <v>0.00346714851051815</v>
+        <v>0.003177934992743474</v>
       </c>
       <c r="P73" s="6" t="n">
-        <v>0.007699395313623389</v>
+        <v>0.007672162679180016</v>
       </c>
       <c r="Q73" s="5" t="n">
         <v>40</v>
@@ -5418,19 +5418,19 @@
         <v>39556</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>28146</v>
+        <v>27589</v>
       </c>
       <c r="T73" s="5" t="n">
-        <v>58828</v>
+        <v>59594</v>
       </c>
       <c r="U73" s="6" t="n">
-        <v>0.005780670378934312</v>
+        <v>0.005780670378934313</v>
       </c>
       <c r="V73" s="6" t="n">
-        <v>0.004113188988671876</v>
+        <v>0.004031772220437757</v>
       </c>
       <c r="W73" s="6" t="n">
-        <v>0.008597069916298133</v>
+        <v>0.008708943614155204</v>
       </c>
     </row>
     <row r="74">
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>5285</v>
+        <v>5700</v>
       </c>
       <c r="G74" s="6" t="n">
         <v>0.0003384691560365102</v>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.001583609142184388</v>
+        <v>0.001708010451862671</v>
       </c>
       <c r="J74" s="5" t="n">
         <v>6</v>
@@ -5468,19 +5468,19 @@
         <v>4893</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>1801</v>
+        <v>1623</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>10833</v>
+        <v>10437</v>
       </c>
       <c r="N74" s="6" t="n">
         <v>0.001395862342420269</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.0005138078972862332</v>
+        <v>0.000462974927722067</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.003090492908006298</v>
+        <v>0.002977503681651541</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>7</v>
@@ -5489,19 +5489,19 @@
         <v>6023</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>2477</v>
+        <v>2516</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>12322</v>
+        <v>12214</v>
       </c>
       <c r="U74" s="6" t="n">
-        <v>0.0008801458489208582</v>
+        <v>0.0008801458489208583</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.0003620380731473501</v>
+        <v>0.0003676521489550608</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.001800667786127456</v>
+        <v>0.001785000219476133</v>
       </c>
     </row>
     <row r="75">
@@ -5518,19 +5518,19 @@
         <v>34742</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>23563</v>
+        <v>23739</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>48416</v>
+        <v>48114</v>
       </c>
       <c r="G75" s="6" t="n">
         <v>0.01040975705245936</v>
       </c>
       <c r="H75" s="6" t="n">
-        <v>0.007060272656645319</v>
+        <v>0.007113050654990767</v>
       </c>
       <c r="I75" s="6" t="n">
-        <v>0.01450703548014373</v>
+        <v>0.01441652504773613</v>
       </c>
       <c r="J75" s="5" t="n">
         <v>33</v>
@@ -5539,19 +5539,19 @@
         <v>25499</v>
       </c>
       <c r="L75" s="5" t="n">
-        <v>18262</v>
+        <v>17327</v>
       </c>
       <c r="M75" s="5" t="n">
-        <v>35388</v>
+        <v>35829</v>
       </c>
       <c r="N75" s="6" t="n">
         <v>0.007274227321396052</v>
       </c>
       <c r="O75" s="6" t="n">
-        <v>0.005209682318253791</v>
+        <v>0.004943043656348617</v>
       </c>
       <c r="P75" s="6" t="n">
-        <v>0.01009525001753512</v>
+        <v>0.01022100343706778</v>
       </c>
       <c r="Q75" s="5" t="n">
         <v>64</v>
@@ -5560,19 +5560,19 @@
         <v>60241</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>46173</v>
+        <v>46126</v>
       </c>
       <c r="T75" s="5" t="n">
-        <v>76703</v>
+        <v>77578</v>
       </c>
       <c r="U75" s="6" t="n">
         <v>0.008803501785228509</v>
       </c>
       <c r="V75" s="6" t="n">
-        <v>0.006747682881905587</v>
+        <v>0.006740721019337621</v>
       </c>
       <c r="W75" s="6" t="n">
-        <v>0.01120923780433709</v>
+        <v>0.01133718088243968</v>
       </c>
     </row>
     <row r="76">
@@ -5589,19 +5589,19 @@
         <v>44895</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>32390</v>
+        <v>32549</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>60553</v>
+        <v>59413</v>
       </c>
       <c r="G76" s="6" t="n">
         <v>0.0134521117431059</v>
       </c>
       <c r="H76" s="6" t="n">
-        <v>0.00970515809035322</v>
+        <v>0.009752869646126958</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.01814366472048561</v>
+        <v>0.01780227682549215</v>
       </c>
       <c r="J76" s="5" t="n">
         <v>59</v>
@@ -5610,19 +5610,19 @@
         <v>43718</v>
       </c>
       <c r="L76" s="5" t="n">
-        <v>33087</v>
+        <v>33810</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>57672</v>
+        <v>57461</v>
       </c>
       <c r="N76" s="6" t="n">
         <v>0.01247158116379331</v>
       </c>
       <c r="O76" s="6" t="n">
-        <v>0.009438901632451695</v>
+        <v>0.009645095798593203</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>0.01645231677760521</v>
+        <v>0.01639224560529237</v>
       </c>
       <c r="Q76" s="5" t="n">
         <v>103</v>
@@ -5631,19 +5631,19 @@
         <v>88613</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>71688</v>
+        <v>71281</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>107872</v>
+        <v>109770</v>
       </c>
       <c r="U76" s="6" t="n">
-        <v>0.0129498098857519</v>
+        <v>0.01294980988575191</v>
       </c>
       <c r="V76" s="6" t="n">
-        <v>0.01047632092425626</v>
+        <v>0.01041693613475723</v>
       </c>
       <c r="W76" s="6" t="n">
-        <v>0.01576425508161527</v>
+        <v>0.01604167989624812</v>
       </c>
     </row>
     <row r="77">
@@ -5660,19 +5660,19 @@
         <v>2863014</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>2820601</v>
+        <v>2814636</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>2910261</v>
+        <v>2905276</v>
       </c>
       <c r="G77" s="6" t="n">
         <v>0.8578556592553767</v>
       </c>
       <c r="H77" s="6" t="n">
-        <v>0.8451472794482241</v>
+        <v>0.8433598310066357</v>
       </c>
       <c r="I77" s="6" t="n">
-        <v>0.8720124215822627</v>
+        <v>0.8705187288487943</v>
       </c>
       <c r="J77" s="5" t="n">
         <v>4415</v>
@@ -5681,19 +5681,19 @@
         <v>2998662</v>
       </c>
       <c r="L77" s="5" t="n">
-        <v>2960444</v>
+        <v>2958659</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>3034626</v>
+        <v>3032334</v>
       </c>
       <c r="N77" s="6" t="n">
         <v>0.8554392896691553</v>
       </c>
       <c r="O77" s="6" t="n">
-        <v>0.8445365766110594</v>
+        <v>0.8440274728691513</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>0.8656988744001908</v>
+        <v>0.8650451125295207</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>7197</v>
@@ -5702,19 +5702,19 @@
         <v>5861676</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>5798948</v>
+        <v>5804129</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>5916591</v>
+        <v>5921977</v>
       </c>
       <c r="U77" s="6" t="n">
-        <v>0.8566178121582839</v>
+        <v>0.856617812158284</v>
       </c>
       <c r="V77" s="6" t="n">
-        <v>0.8474507436417087</v>
+        <v>0.8482078432972268</v>
       </c>
       <c r="W77" s="6" t="n">
-        <v>0.8646429948931595</v>
+        <v>0.8654301262102403</v>
       </c>
     </row>
     <row r="78">
@@ -5731,19 +5731,19 @@
         <v>154907</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>128767</v>
+        <v>129747</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>186761</v>
+        <v>187460</v>
       </c>
       <c r="G78" s="6" t="n">
         <v>0.0464152605513317</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.03858302929753068</v>
+        <v>0.03887650455930481</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.05595996225791793</v>
+        <v>0.05616940030248042</v>
       </c>
       <c r="J78" s="5" t="n">
         <v>193</v>
@@ -5752,19 +5752,19 @@
         <v>144058</v>
       </c>
       <c r="L78" s="5" t="n">
-        <v>124597</v>
+        <v>124125</v>
       </c>
       <c r="M78" s="5" t="n">
-        <v>167537</v>
+        <v>167541</v>
       </c>
       <c r="N78" s="6" t="n">
         <v>0.04109584282032695</v>
       </c>
       <c r="O78" s="6" t="n">
-        <v>0.03554423358173239</v>
+        <v>0.035409478966795</v>
       </c>
       <c r="P78" s="6" t="n">
-        <v>0.04779375985632855</v>
+        <v>0.04779494219728186</v>
       </c>
       <c r="Q78" s="5" t="n">
         <v>331</v>
@@ -5773,19 +5773,19 @@
         <v>298964</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>267594</v>
+        <v>266209</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>336780</v>
+        <v>332355</v>
       </c>
       <c r="U78" s="6" t="n">
         <v>0.04369025282317024</v>
       </c>
       <c r="V78" s="6" t="n">
-        <v>0.03910583631074309</v>
+        <v>0.03890350513118226</v>
       </c>
       <c r="W78" s="6" t="n">
-        <v>0.0492165590528905</v>
+        <v>0.04856987473058356</v>
       </c>
     </row>
     <row r="79">
@@ -5802,19 +5802,19 @@
         <v>288027</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>254689</v>
+        <v>255492</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>325009</v>
+        <v>320149</v>
       </c>
       <c r="G79" s="6" t="n">
         <v>0.08630250551261023</v>
       </c>
       <c r="H79" s="6" t="n">
-        <v>0.07631340974301816</v>
+        <v>0.07655414118120643</v>
       </c>
       <c r="I79" s="6" t="n">
-        <v>0.09738356551610992</v>
+        <v>0.0959275058720538</v>
       </c>
       <c r="J79" s="5" t="n">
         <v>448</v>
@@ -5823,19 +5823,19 @@
         <v>344139</v>
       </c>
       <c r="L79" s="5" t="n">
-        <v>314064</v>
+        <v>313787</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>380947</v>
+        <v>378740</v>
       </c>
       <c r="N79" s="6" t="n">
         <v>0.09817391143377222</v>
       </c>
       <c r="O79" s="6" t="n">
-        <v>0.0895941133330289</v>
+        <v>0.08951528520355596</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>0.1086741817883849</v>
+        <v>0.1080444559927581</v>
       </c>
       <c r="Q79" s="5" t="n">
         <v>730</v>
@@ -5844,19 +5844,19 @@
         <v>632166</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>585984</v>
+        <v>589551</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>683111</v>
+        <v>682769</v>
       </c>
       <c r="U79" s="6" t="n">
-        <v>0.09238393669834974</v>
+        <v>0.09238393669834977</v>
       </c>
       <c r="V79" s="6" t="n">
-        <v>0.08563496330355305</v>
+        <v>0.08615617913871633</v>
       </c>
       <c r="W79" s="6" t="n">
-        <v>0.09982895447785643</v>
+        <v>0.09977899220716557</v>
       </c>
     </row>
     <row r="80">
@@ -5873,19 +5873,19 @@
         <v>18745</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>10054</v>
+        <v>9487</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>35099</v>
+        <v>33385</v>
       </c>
       <c r="G80" s="6" t="n">
         <v>0.005616660796799785</v>
       </c>
       <c r="H80" s="6" t="n">
-        <v>0.003012664066602072</v>
+        <v>0.002842681050671992</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.01051675310486108</v>
+        <v>0.0100031337958134</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>15</v>
@@ -5894,19 +5894,19 @@
         <v>12153</v>
       </c>
       <c r="L80" s="5" t="n">
-        <v>7114</v>
+        <v>7025</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>21202</v>
+        <v>20991</v>
       </c>
       <c r="N80" s="6" t="n">
         <v>0.003466872894835229</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>0.002029512995794785</v>
+        <v>0.002003991706148118</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>0.006048230580787036</v>
+        <v>0.005988259075486337</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>28</v>
@@ -5915,19 +5915,19 @@
         <v>30898</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>20653</v>
+        <v>19401</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>48121</v>
+        <v>47515</v>
       </c>
       <c r="U80" s="6" t="n">
-        <v>0.004515376982855939</v>
+        <v>0.00451537698285594</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.003018244906631276</v>
+        <v>0.002835217359186449</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.007032340399400971</v>
+        <v>0.00694384345287638</v>
       </c>
     </row>
     <row r="81">
